--- a/target/classes/Data/TestData.xlsx
+++ b/target/classes/Data/TestData.xlsx
@@ -2,19 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\TestNG_Practice\src\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="loginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,18 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>krish_saha2006@yahoo.co.in</t>
-  </si>
-  <si>
-    <t>krish_test@yahoo.co.in</t>
-  </si>
-  <si>
-    <t>krish_2006@yahoo.co.in</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>saishreedas@gmail.com</t>
+  </si>
+  <si>
+    <t>Liza@1993</t>
+  </si>
+  <si>
+    <t>Laskdjdjkk</t>
+  </si>
+  <si>
+    <t>saishre@gmail.com</t>
+  </si>
+  <si>
+    <t>Valid user</t>
+  </si>
+  <si>
+    <t>Invalid user</t>
+  </si>
+  <si>
+    <t>Valid pass</t>
+  </si>
+  <si>
+    <t>Invalid pass</t>
   </si>
 </sst>
 </file>
@@ -59,18 +67,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,11 +88,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -127,7 +126,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -139,7 +138,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -156,9 +155,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -186,14 +185,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -221,6 +237,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,42 +406,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
